--- a/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.005273541345957</v>
+        <v>2.766975564199811</v>
       </c>
       <c r="C2">
-        <v>0.5654444245399759</v>
+        <v>0.3453892141734656</v>
       </c>
       <c r="D2">
-        <v>0.02575626309308898</v>
+        <v>0.03534611367906138</v>
       </c>
       <c r="E2">
-        <v>0.02641426889047604</v>
+        <v>0.04386317380208027</v>
       </c>
       <c r="F2">
-        <v>1.674713326738527</v>
+        <v>0.652823318516198</v>
       </c>
       <c r="G2">
-        <v>0.0007905030317760074</v>
+        <v>0.0007880859100512336</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3433165999640693</v>
+        <v>0.3074451551146069</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7717493524518808</v>
+        <v>0.6822490555354506</v>
       </c>
       <c r="O2">
-        <v>1.315148947001916</v>
+        <v>1.923888055902836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.473846593802477</v>
+        <v>2.404292825747746</v>
       </c>
       <c r="C3">
-        <v>0.4924811786796965</v>
+        <v>0.3153830997787566</v>
       </c>
       <c r="D3">
-        <v>0.02774793191097213</v>
+        <v>0.03246700755545717</v>
       </c>
       <c r="E3">
-        <v>0.02627949874690572</v>
+        <v>0.04304262831869821</v>
       </c>
       <c r="F3">
-        <v>1.513287418512945</v>
+        <v>0.598119202919186</v>
       </c>
       <c r="G3">
-        <v>0.0007984942216398755</v>
+        <v>0.0007925832013865441</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3008523566825403</v>
+        <v>0.2698476761241011</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8251680747587216</v>
+        <v>0.7082407066178504</v>
       </c>
       <c r="O3">
-        <v>1.197304258359679</v>
+        <v>1.791433566533357</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.152325910291665</v>
+        <v>2.182427497544609</v>
       </c>
       <c r="C4">
-        <v>0.4480701026631948</v>
+        <v>0.2969224415243588</v>
       </c>
       <c r="D4">
-        <v>0.02903083002802287</v>
+        <v>0.03069363356976851</v>
       </c>
       <c r="E4">
-        <v>0.02623671720132137</v>
+        <v>0.04262915000841261</v>
       </c>
       <c r="F4">
-        <v>1.418085761680985</v>
+        <v>0.5658573113478127</v>
       </c>
       <c r="G4">
-        <v>0.00080353492419256</v>
+        <v>0.000795436600469735</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2752974893905105</v>
+        <v>0.2470319546991959</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8595754057060248</v>
+        <v>0.725271564211539</v>
       </c>
       <c r="O4">
-        <v>1.128155793964567</v>
+        <v>1.71448361879888</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.022344960918076</v>
+        <v>2.092183415408954</v>
       </c>
       <c r="C5">
-        <v>0.4300497353836192</v>
+        <v>0.2893886784288782</v>
       </c>
       <c r="D5">
-        <v>0.02956789191902587</v>
+        <v>0.02996946118566157</v>
       </c>
       <c r="E5">
-        <v>0.02622887579523692</v>
+        <v>0.04248237801162702</v>
       </c>
       <c r="F5">
-        <v>1.380180379230879</v>
+        <v>0.5530210580495023</v>
       </c>
       <c r="G5">
-        <v>0.000805624226648431</v>
+        <v>0.0007966229817147953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2649990380410259</v>
+        <v>0.2377952767846381</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8739831653268517</v>
+        <v>0.7324728737144071</v>
       </c>
       <c r="O5">
-        <v>1.100708725319762</v>
+        <v>1.684155475117819</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.000820184209374</v>
+        <v>2.077207490871047</v>
       </c>
       <c r="C6">
-        <v>0.4270615893551621</v>
+        <v>0.2881369991227984</v>
       </c>
       <c r="D6">
-        <v>0.02965791020272945</v>
+        <v>0.02984911902153797</v>
       </c>
       <c r="E6">
-        <v>0.02622814035234455</v>
+        <v>0.04245929057941566</v>
       </c>
       <c r="F6">
-        <v>1.373937363395811</v>
+        <v>0.5509077294065108</v>
       </c>
       <c r="G6">
-        <v>0.0008059733188699738</v>
+        <v>0.0007968214175310129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2632955404296382</v>
+        <v>0.2362650208599604</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8763984117818957</v>
+        <v>0.7336841774486089</v>
       </c>
       <c r="O6">
-        <v>1.096193252263546</v>
+        <v>1.679179683924957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.150568927513746</v>
+        <v>2.181209804804098</v>
       </c>
       <c r="C7">
-        <v>0.4478267853594673</v>
+        <v>0.2968208847573379</v>
       </c>
       <c r="D7">
-        <v>0.02903801627183267</v>
+        <v>0.03068387336220368</v>
       </c>
       <c r="E7">
-        <v>0.02623657319016015</v>
+        <v>0.0426270839080285</v>
       </c>
       <c r="F7">
-        <v>1.417571071711279</v>
+        <v>0.5656829683645697</v>
       </c>
       <c r="G7">
-        <v>0.0008035629569428154</v>
+        <v>0.0007954525042450089</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2751581526979265</v>
+        <v>0.2469071477066507</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8597681714153786</v>
+        <v>0.7253676372225328</v>
       </c>
       <c r="O7">
-        <v>1.127782766599097</v>
+        <v>1.714070525456663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.820945301719519</v>
+        <v>2.641727234141626</v>
       </c>
       <c r="C8">
-        <v>0.5401932918508408</v>
+        <v>0.3350497009940483</v>
       </c>
       <c r="D8">
-        <v>0.02643001683544544</v>
+        <v>0.03435449313644767</v>
       </c>
       <c r="E8">
-        <v>0.02635921820218456</v>
+        <v>0.04356088650074064</v>
       </c>
       <c r="F8">
-        <v>1.618182007750562</v>
+        <v>0.6336718334571856</v>
       </c>
       <c r="G8">
-        <v>0.0007932314803906356</v>
+        <v>0.0007896177519888398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3285579342307727</v>
+        <v>0.2944214334232669</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7898231722906246</v>
+        <v>0.6909832898629062</v>
       </c>
       <c r="O8">
-        <v>1.273802806202184</v>
+        <v>1.87726507963967</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.181474033934762</v>
+        <v>3.55326670018809</v>
       </c>
       <c r="C9">
-        <v>0.7254251728561769</v>
+        <v>0.4098089472029187</v>
       </c>
       <c r="D9">
-        <v>0.02183358127279433</v>
+        <v>0.04151364011161718</v>
       </c>
       <c r="E9">
-        <v>0.02693947375141192</v>
+        <v>0.04615629451267544</v>
       </c>
       <c r="F9">
-        <v>2.047339304647309</v>
+        <v>0.7786245228148658</v>
       </c>
       <c r="G9">
-        <v>0.0007739629312399789</v>
+        <v>0.0007788844310358676</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4381357931813028</v>
+        <v>0.390063983813576</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6663051369218245</v>
+        <v>0.6324630433613905</v>
       </c>
       <c r="O9">
-        <v>1.589364902966608</v>
+        <v>2.235448146610253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.221580574578468</v>
+        <v>4.231082053402929</v>
       </c>
       <c r="C10">
-        <v>0.8656155181093084</v>
+        <v>0.4647416079550055</v>
       </c>
       <c r="D10">
-        <v>0.01883917936082646</v>
+        <v>0.046758557053451</v>
       </c>
       <c r="E10">
-        <v>0.02760779471688046</v>
+        <v>0.04859913449120512</v>
       </c>
       <c r="F10">
-        <v>2.391765071550438</v>
+        <v>0.8938489681712696</v>
       </c>
       <c r="G10">
-        <v>0.0007602985524833241</v>
+        <v>0.0007713984152662</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5227727838854719</v>
+        <v>0.4623337740458737</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5852474300747232</v>
+        <v>0.5954927165073585</v>
       </c>
       <c r="O10">
-        <v>1.844879029286759</v>
+        <v>2.526970133674553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.706770157935864</v>
+        <v>4.541913229219233</v>
       </c>
       <c r="C11">
-        <v>0.9306962322973504</v>
+        <v>0.4897665705478289</v>
       </c>
       <c r="D11">
-        <v>0.01757803775551814</v>
+        <v>0.04914358125306961</v>
       </c>
       <c r="E11">
-        <v>0.02797322976044292</v>
+        <v>0.04984354229554455</v>
       </c>
       <c r="F11">
-        <v>2.556658673847721</v>
+        <v>0.9485566962753751</v>
       </c>
       <c r="G11">
-        <v>0.0007541606239439376</v>
+        <v>0.0007680719858744744</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5624721536153316</v>
+        <v>0.4957655613682448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5508311107291206</v>
+        <v>0.5801246867008061</v>
       </c>
       <c r="O11">
-        <v>1.967765741437574</v>
+        <v>2.666977640417002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.892537936813824</v>
+        <v>4.660038532056319</v>
       </c>
       <c r="C12">
-        <v>0.9555684736560579</v>
+        <v>0.4992509632525639</v>
       </c>
       <c r="D12">
-        <v>0.01711681686999356</v>
+        <v>0.05004678943022611</v>
       </c>
       <c r="E12">
-        <v>0.02812128349484588</v>
+        <v>0.05033541370005779</v>
       </c>
       <c r="F12">
-        <v>2.620461278756778</v>
+        <v>0.9696381085773993</v>
       </c>
       <c r="G12">
-        <v>0.0007518448669477397</v>
+        <v>0.0007668230379803687</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5777060530674305</v>
+        <v>0.5085159688418202</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5381864476378482</v>
+        <v>0.5745267012333741</v>
       </c>
       <c r="O12">
-        <v>2.015401241263248</v>
+        <v>2.721168776356734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.852433627258108</v>
+        <v>4.634578394672758</v>
       </c>
       <c r="C13">
-        <v>0.9502009809800143</v>
+        <v>0.4972079265027958</v>
       </c>
       <c r="D13">
-        <v>0.01721538992454619</v>
+        <v>0.04985226199741533</v>
       </c>
       <c r="E13">
-        <v>0.02808895285789781</v>
+        <v>0.05022853739638755</v>
       </c>
       <c r="F13">
-        <v>2.606656595669193</v>
+        <v>0.9650810340974942</v>
       </c>
       <c r="G13">
-        <v>0.0007523432730154379</v>
+        <v>0.0007670915564343623</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.574415746402849</v>
+        <v>0.5057657372379083</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5408918411435906</v>
+        <v>0.5757222555702199</v>
       </c>
       <c r="O13">
-        <v>2.005090613385562</v>
+        <v>2.709443711073988</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.722010666616711</v>
+        <v>4.551622670546578</v>
       </c>
       <c r="C14">
-        <v>0.9327376793778512</v>
+        <v>0.4905466800569229</v>
       </c>
       <c r="D14">
-        <v>0.01753975377266137</v>
+        <v>0.04921788659246573</v>
       </c>
       <c r="E14">
-        <v>0.02798521122390163</v>
+        <v>0.04988358622052225</v>
       </c>
       <c r="F14">
-        <v>2.5618793611944</v>
+        <v>0.950283554068065</v>
       </c>
       <c r="G14">
-        <v>0.0007539699505956232</v>
+        <v>0.0007679690237702624</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5637212594295704</v>
+        <v>0.496812667393641</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.549782834335204</v>
+        <v>0.5796596185462519</v>
       </c>
       <c r="O14">
-        <v>1.971661782436726</v>
+        <v>2.67141179947194</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.642397867619536</v>
+        <v>4.500866564623379</v>
       </c>
       <c r="C15">
-        <v>0.9220718079546941</v>
+        <v>0.4864676025684105</v>
       </c>
       <c r="D15">
-        <v>0.01774062368695795</v>
+        <v>0.04882932575975474</v>
       </c>
       <c r="E15">
-        <v>0.0279229526520961</v>
+        <v>0.04967502797837753</v>
       </c>
       <c r="F15">
-        <v>2.53463499509752</v>
+        <v>0.9412682696394938</v>
       </c>
       <c r="G15">
-        <v>0.0007549673648427854</v>
+        <v>0.0007685078706330242</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5571976077684155</v>
+        <v>0.4913407697097085</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5552804683146988</v>
+        <v>0.5821006239643296</v>
       </c>
       <c r="O15">
-        <v>1.951333646523196</v>
+        <v>2.648272380357241</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.190139814833856</v>
+        <v>4.210823809214617</v>
       </c>
       <c r="C16">
-        <v>0.8613919131363161</v>
+        <v>0.4631071244434963</v>
       </c>
       <c r="D16">
-        <v>0.01892377983181959</v>
+        <v>0.04660268691549163</v>
       </c>
       <c r="E16">
-        <v>0.02758521803456127</v>
+        <v>0.04852061410803898</v>
       </c>
       <c r="F16">
-        <v>2.381169010944404</v>
+        <v>0.8903227532883591</v>
       </c>
       <c r="G16">
-        <v>0.0007607010294868892</v>
+        <v>0.0007716173394350415</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.520204781572815</v>
+        <v>0.4601609994365958</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5875489276576644</v>
+        <v>0.5965273239940885</v>
       </c>
       <c r="O16">
-        <v>1.836993872996075</v>
+        <v>2.517978303242046</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.915983332594351</v>
+        <v>4.033572329786239</v>
       </c>
       <c r="C17">
-        <v>0.8245281644066722</v>
+        <v>0.4487873319365292</v>
       </c>
       <c r="D17">
-        <v>0.01967668933999001</v>
+        <v>0.04523660615678438</v>
       </c>
       <c r="E17">
-        <v>0.02739432521856777</v>
+        <v>0.04784755083214165</v>
       </c>
       <c r="F17">
-        <v>2.289247021910043</v>
+        <v>0.8596804863002916</v>
       </c>
       <c r="G17">
-        <v>0.0007642366354353104</v>
+        <v>0.0007735446751977959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4978367124133172</v>
+        <v>0.4411828651283116</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6079972417019945</v>
+        <v>0.6057579913870512</v>
       </c>
       <c r="O17">
-        <v>1.76865089383611</v>
+        <v>2.440016317830327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.759408573014525</v>
+        <v>3.931852273187133</v>
       </c>
       <c r="C18">
-        <v>0.8034455122269151</v>
+        <v>0.440554152334812</v>
       </c>
       <c r="D18">
-        <v>0.02011912766421098</v>
+        <v>0.04445077451904922</v>
       </c>
       <c r="E18">
-        <v>0.02729025332503809</v>
+        <v>0.04747285946278268</v>
       </c>
       <c r="F18">
-        <v>2.237136885358311</v>
+        <v>0.8422692886910852</v>
       </c>
       <c r="G18">
-        <v>0.0007662777490631221</v>
+        <v>0.0007746607056671743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4850820144265384</v>
+        <v>0.4303187867383684</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6199875319108727</v>
+        <v>0.6112028669047262</v>
       </c>
       <c r="O18">
-        <v>1.729958271917624</v>
+        <v>2.395863384308115</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.706577484532374</v>
+        <v>3.897449350257148</v>
       </c>
       <c r="C19">
-        <v>0.7963268458115635</v>
+        <v>0.4377670045595323</v>
       </c>
       <c r="D19">
-        <v>0.02027049066338549</v>
+        <v>0.04418468330324288</v>
       </c>
       <c r="E19">
-        <v>0.02725597556615789</v>
+        <v>0.04734808763681642</v>
       </c>
       <c r="F19">
-        <v>2.21961886838406</v>
+        <v>0.8364097819237202</v>
       </c>
       <c r="G19">
-        <v>0.0007669702043031115</v>
+        <v>0.0007750398781260932</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4807817189583119</v>
+        <v>0.4266489572984256</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6240855772508489</v>
+        <v>0.6130693223860249</v>
       </c>
       <c r="O19">
-        <v>1.716959389017418</v>
+        <v>2.381029030996245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.945050497222894</v>
+        <v>4.052416781676698</v>
       </c>
       <c r="C20">
-        <v>0.8284396423404417</v>
+        <v>0.4503113488781025</v>
       </c>
       <c r="D20">
-        <v>0.01959555729103535</v>
+        <v>0.04538203667451768</v>
       </c>
       <c r="E20">
-        <v>0.02741404783823853</v>
+        <v>0.04791790191811707</v>
       </c>
       <c r="F20">
-        <v>2.298952287217659</v>
+        <v>0.8629200726523152</v>
       </c>
       <c r="G20">
-        <v>0.0007638595036060745</v>
+        <v>0.0007733387378061063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5002061673580442</v>
+        <v>0.443197701150666</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6057965501217595</v>
+        <v>0.6047612414115378</v>
       </c>
       <c r="O20">
-        <v>1.77586133313649</v>
+        <v>2.44824345120287</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.760261132709331</v>
+        <v>4.575976848957168</v>
       </c>
       <c r="C21">
-        <v>0.9378605553928878</v>
+        <v>0.4925030090237783</v>
       </c>
       <c r="D21">
-        <v>0.01744402066708339</v>
+        <v>0.04940421508518256</v>
       </c>
       <c r="E21">
-        <v>0.02801541297329457</v>
+        <v>0.04998433409102176</v>
       </c>
       <c r="F21">
-        <v>2.574993031736227</v>
+        <v>0.9546197376978114</v>
       </c>
       <c r="G21">
-        <v>0.0007534919472517971</v>
+        <v>0.0007677110055177482</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5668568004381314</v>
+        <v>0.4994398559600626</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5471605030059834</v>
+        <v>0.5784969978031071</v>
       </c>
       <c r="O21">
-        <v>1.98144951470212</v>
+        <v>2.68254992736891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.305093617248701</v>
+        <v>4.920636086255115</v>
       </c>
       <c r="C22">
-        <v>1.010722443249733</v>
+        <v>0.5201257438666289</v>
       </c>
       <c r="D22">
-        <v>0.01613421088266165</v>
+        <v>0.05203333856971426</v>
       </c>
       <c r="E22">
-        <v>0.02846527869329663</v>
+        <v>0.05145595367167388</v>
       </c>
       <c r="F22">
-        <v>2.763435754157626</v>
+        <v>1.016695418220692</v>
       </c>
       <c r="G22">
-        <v>0.0007467644445444021</v>
+        <v>0.0007640949747644843</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6116020858037814</v>
+        <v>0.5367304802933148</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5111198924997566</v>
+        <v>0.5626299575678928</v>
       </c>
       <c r="O22">
-        <v>2.122311943092583</v>
+        <v>2.842579490659347</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.013092362761995</v>
+        <v>4.736435856061405</v>
       </c>
       <c r="C23">
-        <v>0.9716967138517418</v>
+        <v>0.5053775651174135</v>
       </c>
       <c r="D23">
-        <v>0.01682378526912132</v>
+        <v>0.05063002418452101</v>
       </c>
       <c r="E23">
-        <v>0.02821967108249268</v>
+        <v>0.05065892026720853</v>
       </c>
       <c r="F23">
-        <v>2.662059358937938</v>
+        <v>0.9833558340456818</v>
       </c>
       <c r="G23">
-        <v>0.0007503515984040917</v>
+        <v>0.000766019474942694</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5876018645234922</v>
+        <v>0.5167752711438993</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5301339823404803</v>
+        <v>0.570975141788054</v>
       </c>
       <c r="O23">
-        <v>2.046483532315378</v>
+        <v>2.756498875946988</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.931906010784473</v>
+        <v>4.043896635942701</v>
       </c>
       <c r="C24">
-        <v>0.8266709209441103</v>
+        <v>0.4496223427119617</v>
       </c>
       <c r="D24">
-        <v>0.01963220738242022</v>
+        <v>0.04531628896409501</v>
       </c>
       <c r="E24">
-        <v>0.02740511362789988</v>
+        <v>0.04788605811149971</v>
       </c>
       <c r="F24">
-        <v>2.294562254361864</v>
+        <v>0.8614548183648623</v>
       </c>
       <c r="G24">
-        <v>0.000764029978317593</v>
+        <v>0.0007734318172165513</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4991346118154212</v>
+        <v>0.4422866491024848</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6067907556154033</v>
+        <v>0.6052114430813589</v>
       </c>
       <c r="O24">
-        <v>1.772599639484625</v>
+        <v>2.444521890363546</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.807288816424091</v>
+        <v>3.305473848216138</v>
       </c>
       <c r="C25">
-        <v>0.6747219176061776</v>
+        <v>0.3895937147379129</v>
       </c>
       <c r="D25">
-        <v>0.02301526942052057</v>
+        <v>0.03958020671279172</v>
       </c>
       <c r="E25">
-        <v>0.0267427429739211</v>
+        <v>0.04536539094768521</v>
       </c>
       <c r="F25">
-        <v>1.926705624888939</v>
+        <v>0.7380038877951733</v>
       </c>
       <c r="G25">
-        <v>0.0007790803206237678</v>
+        <v>0.0007817154260123027</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4078589321643022</v>
+        <v>0.3638768191725035</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.698127210387586</v>
+        <v>0.6472819228814828</v>
       </c>
       <c r="O25">
-        <v>1.500303813000102</v>
+        <v>2.133960011591455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.766975564199811</v>
+        <v>2.324936815000342</v>
       </c>
       <c r="C2">
-        <v>0.3453892141734656</v>
+        <v>0.4127698923517897</v>
       </c>
       <c r="D2">
-        <v>0.03534611367906138</v>
+        <v>0.05761696943432781</v>
       </c>
       <c r="E2">
-        <v>0.04386317380208027</v>
+        <v>0.05088830392543997</v>
       </c>
       <c r="F2">
-        <v>0.652823318516198</v>
+        <v>0.4183001969259053</v>
       </c>
       <c r="G2">
-        <v>0.0007880859100512336</v>
+        <v>0.3112396988384489</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003042733414710064</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2501141221643408</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2357825276081549</v>
       </c>
       <c r="L2">
-        <v>0.3074451551146069</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6822490555354506</v>
+        <v>0.3046269638096675</v>
       </c>
       <c r="O2">
-        <v>1.923888055902836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8282440373389761</v>
+      </c>
+      <c r="Q2">
+        <v>1.13350053146695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.404292825747746</v>
+        <v>2.024873742809859</v>
       </c>
       <c r="C3">
-        <v>0.3153830997787566</v>
+        <v>0.3807899681660132</v>
       </c>
       <c r="D3">
-        <v>0.03246700755545717</v>
+        <v>0.05095916710487103</v>
       </c>
       <c r="E3">
-        <v>0.04304262831869821</v>
+        <v>0.05006201868308757</v>
       </c>
       <c r="F3">
-        <v>0.598119202919186</v>
+        <v>0.3859575744922594</v>
       </c>
       <c r="G3">
-        <v>0.0007925832013865441</v>
+        <v>0.2876634538416099</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001839534680884825</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.243573049959295</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2362701491681349</v>
       </c>
       <c r="L3">
-        <v>0.2698476761241011</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7082407066178504</v>
+        <v>0.2674537614270633</v>
       </c>
       <c r="O3">
-        <v>1.791433566533357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8231339547511638</v>
+      </c>
+      <c r="Q3">
+        <v>1.069520158466943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.182427497544609</v>
+        <v>1.83997689780773</v>
       </c>
       <c r="C4">
-        <v>0.2969224415243588</v>
+        <v>0.3612284941252284</v>
       </c>
       <c r="D4">
-        <v>0.03069363356976851</v>
+        <v>0.04687643690810006</v>
       </c>
       <c r="E4">
-        <v>0.04262915000841261</v>
+        <v>0.04961399798638766</v>
       </c>
       <c r="F4">
-        <v>0.5658573113478127</v>
+        <v>0.3666034463509931</v>
       </c>
       <c r="G4">
-        <v>0.000795436600469735</v>
+        <v>0.2736091988527605</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001282215442305112</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2398567686399886</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2369052750750527</v>
       </c>
       <c r="L4">
-        <v>0.2470319546991959</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.725271564211539</v>
+        <v>0.2448541019724502</v>
       </c>
       <c r="O4">
-        <v>1.71448361879888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8208086166538493</v>
+      </c>
+      <c r="Q4">
+        <v>1.031749077124843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.092183415408954</v>
+        <v>1.763482729038628</v>
       </c>
       <c r="C5">
-        <v>0.2893886784288782</v>
+        <v>0.3537032024740512</v>
       </c>
       <c r="D5">
-        <v>0.02996946118566157</v>
+        <v>0.04525593379648285</v>
       </c>
       <c r="E5">
-        <v>0.04248237801162702</v>
+        <v>0.04940740598300053</v>
       </c>
       <c r="F5">
-        <v>0.5530210580495023</v>
+        <v>0.3585256874522713</v>
       </c>
       <c r="G5">
-        <v>0.0007966229817147953</v>
+        <v>0.2676686264967501</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001157671713637232</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2382551361758161</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.236997379898682</v>
       </c>
       <c r="L5">
-        <v>0.2377952767846381</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7324728737144071</v>
+        <v>0.2357708362276014</v>
       </c>
       <c r="O5">
-        <v>1.684155475117819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8204457021449514</v>
+      </c>
+      <c r="Q5">
+        <v>1.015719664836041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.077207490871047</v>
+        <v>1.749574968743786</v>
       </c>
       <c r="C6">
-        <v>0.2881369991227984</v>
+        <v>0.3529824549354288</v>
       </c>
       <c r="D6">
-        <v>0.02984911902153797</v>
+        <v>0.04503881874648386</v>
       </c>
       <c r="E6">
-        <v>0.04245929057941566</v>
+        <v>0.04932694545293792</v>
       </c>
       <c r="F6">
-        <v>0.5509077294065108</v>
+        <v>0.3568121534849169</v>
       </c>
       <c r="G6">
-        <v>0.0007968214175310129</v>
+        <v>0.2663057848652528</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001219847709607258</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2377982262550589</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2367146879401822</v>
       </c>
       <c r="L6">
-        <v>0.2362650208599604</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7336841774486089</v>
+        <v>0.2343566001760848</v>
       </c>
       <c r="O6">
-        <v>1.679179683924957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8208721154168472</v>
+      </c>
+      <c r="Q6">
+        <v>1.011859740869681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.181209804804098</v>
+        <v>1.835668979636381</v>
       </c>
       <c r="C7">
-        <v>0.2968208847573379</v>
+        <v>0.3625741889005383</v>
       </c>
       <c r="D7">
-        <v>0.03068387336220368</v>
+        <v>0.04699684893295597</v>
       </c>
       <c r="E7">
-        <v>0.0426270839080285</v>
+        <v>0.0494827134839273</v>
       </c>
       <c r="F7">
-        <v>0.5656829683645697</v>
+        <v>0.3654568816528041</v>
       </c>
       <c r="G7">
-        <v>0.0007954525042450089</v>
+        <v>0.2724832570973064</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001484607193171783</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.239301477325526</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2360792576592274</v>
       </c>
       <c r="L7">
-        <v>0.2469071477066507</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7253676372225328</v>
+        <v>0.2449802425765171</v>
       </c>
       <c r="O7">
-        <v>1.714070525456663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8221130209899741</v>
+      </c>
+      <c r="Q7">
+        <v>1.028197584413704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.641727234141626</v>
+        <v>2.217223204969002</v>
       </c>
       <c r="C8">
-        <v>0.3350497009940483</v>
+        <v>0.4036679098133078</v>
       </c>
       <c r="D8">
-        <v>0.03435449313644767</v>
+        <v>0.05551032838551606</v>
       </c>
       <c r="E8">
-        <v>0.04356088650074064</v>
+        <v>0.05042084110223044</v>
       </c>
       <c r="F8">
-        <v>0.6336718334571856</v>
+        <v>0.4056611448424832</v>
       </c>
       <c r="G8">
-        <v>0.0007896177519888398</v>
+        <v>0.301630117955888</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002830177214993235</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2470886267314114</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2347870304570101</v>
       </c>
       <c r="L8">
-        <v>0.2944214334232669</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6909832898629062</v>
+        <v>0.2920904978046224</v>
       </c>
       <c r="O8">
-        <v>1.87726507963967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8281012187206755</v>
+      </c>
+      <c r="Q8">
+        <v>1.106690024791106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.55326670018809</v>
+        <v>2.966490563848538</v>
       </c>
       <c r="C9">
-        <v>0.4098089472029187</v>
+        <v>0.4823426687876236</v>
       </c>
       <c r="D9">
-        <v>0.04151364011161718</v>
+        <v>0.07200936138286096</v>
       </c>
       <c r="E9">
-        <v>0.04615629451267544</v>
+        <v>0.05298372326029188</v>
       </c>
       <c r="F9">
-        <v>0.7786245228148658</v>
+        <v>0.4907343277171634</v>
       </c>
       <c r="G9">
-        <v>0.0007788844310358676</v>
+        <v>0.3643404252913882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00673612483228414</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2658375839364027</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2365476343507495</v>
       </c>
       <c r="L9">
-        <v>0.390063983813576</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6324630433613905</v>
+        <v>0.3860310525423927</v>
       </c>
       <c r="O9">
-        <v>2.235448146610253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8441459906315458</v>
+      </c>
+      <c r="Q9">
+        <v>1.279601035309668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.231082053402929</v>
+        <v>3.512815794136998</v>
       </c>
       <c r="C10">
-        <v>0.4647416079550055</v>
+        <v>0.541548216834002</v>
       </c>
       <c r="D10">
-        <v>0.046758557053451</v>
+        <v>0.08427414279847767</v>
       </c>
       <c r="E10">
-        <v>0.04859913449120512</v>
+        <v>0.05513679374023184</v>
       </c>
       <c r="F10">
-        <v>0.8938489681712696</v>
+        <v>0.5559155987929145</v>
       </c>
       <c r="G10">
-        <v>0.0007713984152662</v>
+        <v>0.4126090246414265</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01085131798722561</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2810969727659085</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.239378921829644</v>
       </c>
       <c r="L10">
-        <v>0.4623337740458737</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5954927165073585</v>
+        <v>0.4567233296900213</v>
       </c>
       <c r="O10">
-        <v>2.526970133674553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8612184419444446</v>
+      </c>
+      <c r="Q10">
+        <v>1.414359500280142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.541913229219233</v>
+        <v>3.755351623844319</v>
       </c>
       <c r="C11">
-        <v>0.4897665705478289</v>
+        <v>0.5711768704670135</v>
       </c>
       <c r="D11">
-        <v>0.04914358125306961</v>
+        <v>0.09011906053920171</v>
       </c>
       <c r="E11">
-        <v>0.04984354229554455</v>
+        <v>0.05598633155484833</v>
       </c>
       <c r="F11">
-        <v>0.9485566962753751</v>
+        <v>0.5846662459268899</v>
       </c>
       <c r="G11">
-        <v>0.0007680719858744744</v>
+        <v>0.4335375620811277</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01333389846684341</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2875951959305922</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2398052004088989</v>
       </c>
       <c r="L11">
-        <v>0.4957655613682448</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5801246867008061</v>
+        <v>0.4897073427305259</v>
       </c>
       <c r="O11">
-        <v>2.666977640417002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8725056233527368</v>
+      </c>
+      <c r="Q11">
+        <v>1.47254282105547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.660038532056319</v>
+        <v>3.850103933922355</v>
       </c>
       <c r="C12">
-        <v>0.4992509632525639</v>
+        <v>0.581106159315425</v>
       </c>
       <c r="D12">
-        <v>0.05004678943022611</v>
+        <v>0.09220787247330264</v>
       </c>
       <c r="E12">
-        <v>0.05033541370005779</v>
+        <v>0.05643184570842941</v>
       </c>
       <c r="F12">
-        <v>0.9696381085773993</v>
+        <v>0.5965961418069341</v>
       </c>
       <c r="G12">
-        <v>0.0007668230379803687</v>
+        <v>0.4424935703701465</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01415319626429756</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2905860409644845</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2407511119193693</v>
       </c>
       <c r="L12">
-        <v>0.5085159688418202</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5745267012333741</v>
+        <v>0.5020453548383585</v>
       </c>
       <c r="O12">
-        <v>2.721168776356734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.875676686612735</v>
+      </c>
+      <c r="Q12">
+        <v>1.497869796398845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.634578394672758</v>
+        <v>3.830296367401672</v>
       </c>
       <c r="C13">
-        <v>0.4972079265027958</v>
+        <v>0.5786986465102189</v>
       </c>
       <c r="D13">
-        <v>0.04985226199741533</v>
+        <v>0.09173188556659539</v>
       </c>
       <c r="E13">
-        <v>0.05022853739638755</v>
+        <v>0.05635779668738827</v>
       </c>
       <c r="F13">
-        <v>0.9650810340974942</v>
+        <v>0.5942049482045348</v>
       </c>
       <c r="G13">
-        <v>0.0007670915564343623</v>
+        <v>0.4407448356708841</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01393838412314619</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2900322369990818</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2406869415327968</v>
       </c>
       <c r="L13">
-        <v>0.5057657372379083</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5757222555702199</v>
+        <v>0.4993411207006773</v>
       </c>
       <c r="O13">
-        <v>2.709443711073988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8747277991898983</v>
+      </c>
+      <c r="Q13">
+        <v>1.492986205803419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.551622670546578</v>
+        <v>3.763401259242585</v>
       </c>
       <c r="C14">
-        <v>0.4905466800569229</v>
+        <v>0.5718794971720627</v>
       </c>
       <c r="D14">
-        <v>0.04921788659246573</v>
+        <v>0.09027981328515722</v>
       </c>
       <c r="E14">
-        <v>0.04988358622052225</v>
+        <v>0.0560322717507713</v>
       </c>
       <c r="F14">
-        <v>0.950283554068065</v>
+        <v>0.5857232240061592</v>
       </c>
       <c r="G14">
-        <v>0.0007679690237702624</v>
+        <v>0.4343507351953235</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01338463995651118</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2878795494168713</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2399422158371962</v>
       </c>
       <c r="L14">
-        <v>0.496812667393641</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5796596185462519</v>
+        <v>0.490702352514802</v>
       </c>
       <c r="O14">
-        <v>2.67141179947194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8726535628280629</v>
+      </c>
+      <c r="Q14">
+        <v>1.474868582085122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.500866564623379</v>
+        <v>3.721246710753576</v>
       </c>
       <c r="C15">
-        <v>0.4864676025684105</v>
+        <v>0.5682332808465276</v>
       </c>
       <c r="D15">
-        <v>0.04882932575975474</v>
+        <v>0.08944193174831838</v>
       </c>
       <c r="E15">
-        <v>0.04967502797837753</v>
+        <v>0.05579030820562814</v>
       </c>
       <c r="F15">
-        <v>0.9412682696394938</v>
+        <v>0.5801830170825397</v>
       </c>
       <c r="G15">
-        <v>0.0007685078706330242</v>
+        <v>0.4300846335338377</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01312731002114464</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2863859973466418</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2392145504297076</v>
       </c>
       <c r="L15">
-        <v>0.4913407697097085</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5821006239643296</v>
+        <v>0.4855062764946609</v>
       </c>
       <c r="O15">
-        <v>2.648272380357241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8719120528168958</v>
+      </c>
+      <c r="Q15">
+        <v>1.462663437920583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.210823809214617</v>
+        <v>3.487093069506955</v>
       </c>
       <c r="C16">
-        <v>0.4631071244434963</v>
+        <v>0.5440310180954668</v>
       </c>
       <c r="D16">
-        <v>0.04660268691549163</v>
+        <v>0.08432134695441107</v>
       </c>
       <c r="E16">
-        <v>0.04852061410803898</v>
+        <v>0.05471037663159883</v>
       </c>
       <c r="F16">
-        <v>0.8903227532883591</v>
+        <v>0.5510047125655007</v>
       </c>
       <c r="G16">
-        <v>0.0007716173394350415</v>
+        <v>0.4081867853203391</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01128117166499898</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2791323760198594</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2369863922414375</v>
       </c>
       <c r="L16">
-        <v>0.4601609994365958</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5965273239940885</v>
+        <v>0.4553060687835853</v>
       </c>
       <c r="O16">
-        <v>2.517978303242046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8647395922636747</v>
+      </c>
+      <c r="Q16">
+        <v>1.400856443707823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.033572329786239</v>
+        <v>3.343401064616046</v>
       </c>
       <c r="C17">
-        <v>0.4487873319365292</v>
+        <v>0.5292145679521525</v>
       </c>
       <c r="D17">
-        <v>0.04523660615678438</v>
+        <v>0.08118425003287655</v>
       </c>
       <c r="E17">
-        <v>0.04784755083214165</v>
+        <v>0.05407054995786353</v>
       </c>
       <c r="F17">
-        <v>0.8596804863002916</v>
+        <v>0.533336870593665</v>
       </c>
       <c r="G17">
-        <v>0.0007735446751977959</v>
+        <v>0.3949546245289213</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01023350956902025</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2748024781116527</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2357549561669714</v>
       </c>
       <c r="L17">
-        <v>0.4411828651283116</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6057579913870512</v>
+        <v>0.436886699667383</v>
       </c>
       <c r="O17">
-        <v>2.440016317830327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8606028747921783</v>
+      </c>
+      <c r="Q17">
+        <v>1.363615862703114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.931852273187133</v>
+        <v>3.263707241565896</v>
       </c>
       <c r="C18">
-        <v>0.440554152334812</v>
+        <v>0.5193662172989946</v>
       </c>
       <c r="D18">
-        <v>0.04445077451904922</v>
+        <v>0.07925163047998041</v>
       </c>
       <c r="E18">
-        <v>0.04747285946278268</v>
+        <v>0.05382316845205004</v>
       </c>
       <c r="F18">
-        <v>0.8422692886910852</v>
+        <v>0.5241775294308155</v>
       </c>
       <c r="G18">
-        <v>0.0007746607056671743</v>
+        <v>0.3883413088033763</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009444488628610692</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2728229572840632</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2358117647839855</v>
       </c>
       <c r="L18">
-        <v>0.4303187867383684</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6112028669047262</v>
+        <v>0.4261088313166965</v>
       </c>
       <c r="O18">
-        <v>2.395863384308115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8570423134255094</v>
+      </c>
+      <c r="Q18">
+        <v>1.345379863811786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.897449350257148</v>
+        <v>3.234425313117015</v>
       </c>
       <c r="C19">
-        <v>0.4377670045595323</v>
+        <v>0.5170641310471922</v>
       </c>
       <c r="D19">
-        <v>0.04418468330324288</v>
+        <v>0.0786974829053122</v>
       </c>
       <c r="E19">
-        <v>0.04734808763681642</v>
+        <v>0.05365396354816809</v>
       </c>
       <c r="F19">
-        <v>0.8364097819237202</v>
+        <v>0.5203794567739735</v>
       </c>
       <c r="G19">
-        <v>0.0007750398781260932</v>
+        <v>0.3853990217208008</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009345769337643972</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2717986573060358</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2352859614355687</v>
       </c>
       <c r="L19">
-        <v>0.4266489572984256</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6130693223860249</v>
+        <v>0.4226363234883763</v>
       </c>
       <c r="O19">
-        <v>2.381029030996245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8568366135613985</v>
+      </c>
+      <c r="Q19">
+        <v>1.336973164403361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.052416781676698</v>
+        <v>3.358933148511653</v>
       </c>
       <c r="C20">
-        <v>0.4503113488781025</v>
+        <v>0.5306856064321721</v>
       </c>
       <c r="D20">
-        <v>0.04538203667451768</v>
+        <v>0.08150786448228331</v>
       </c>
       <c r="E20">
-        <v>0.04791790191811707</v>
+        <v>0.054146646863936</v>
       </c>
       <c r="F20">
-        <v>0.8629200726523152</v>
+        <v>0.5352814230589829</v>
       </c>
       <c r="G20">
-        <v>0.0007733387378061063</v>
+        <v>0.3964285663452785</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01032470234707539</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2752957072867162</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.235937246555423</v>
       </c>
       <c r="L20">
-        <v>0.443197701150666</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6047612414115378</v>
+        <v>0.438826201015587</v>
       </c>
       <c r="O20">
-        <v>2.44824345120287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8609329281064362</v>
+      </c>
+      <c r="Q20">
+        <v>1.367786481532846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.575976848957168</v>
+        <v>3.779704318091262</v>
       </c>
       <c r="C21">
-        <v>0.4925030090237783</v>
+        <v>0.5753834607083377</v>
       </c>
       <c r="D21">
-        <v>0.04940421508518256</v>
+        <v>0.09085174292408027</v>
       </c>
       <c r="E21">
-        <v>0.04998433409102176</v>
+        <v>0.05600170440485286</v>
       </c>
       <c r="F21">
-        <v>0.9546197376978114</v>
+        <v>0.5871791968987097</v>
       </c>
       <c r="G21">
-        <v>0.0007677110055177482</v>
+        <v>0.435187648074546</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01376177541228429</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2879867109351437</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2393584263538777</v>
       </c>
       <c r="L21">
-        <v>0.4994398559600626</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5784969978031071</v>
+        <v>0.4934846511405908</v>
       </c>
       <c r="O21">
-        <v>2.68254992736891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8747073608671343</v>
+      </c>
+      <c r="Q21">
+        <v>1.476883199594823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.920636086255115</v>
+        <v>4.058847166024066</v>
       </c>
       <c r="C22">
-        <v>0.5201257438666289</v>
+        <v>0.6028029861655568</v>
       </c>
       <c r="D22">
-        <v>0.05203333856971426</v>
+        <v>0.09678960960845728</v>
       </c>
       <c r="E22">
-        <v>0.05145595367167388</v>
+        <v>0.05745096903869218</v>
       </c>
       <c r="F22">
-        <v>1.016695418220692</v>
+        <v>0.6232129603554313</v>
       </c>
       <c r="G22">
-        <v>0.0007640949747644843</v>
+        <v>0.4625379424228271</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0160214462546806</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2973565450177915</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2430740098305364</v>
       </c>
       <c r="L22">
-        <v>0.5367304802933148</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5626299575678928</v>
+        <v>0.5292714858469481</v>
       </c>
       <c r="O22">
-        <v>2.842579490659347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8827644929857001</v>
+      </c>
+      <c r="Q22">
+        <v>1.554709255320176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.736435856061405</v>
+        <v>3.913908280707346</v>
       </c>
       <c r="C23">
-        <v>0.5053775651174135</v>
+        <v>0.5863470138084779</v>
       </c>
       <c r="D23">
-        <v>0.05063002418452101</v>
+        <v>0.09344335942675031</v>
       </c>
       <c r="E23">
-        <v>0.05065892026720853</v>
+        <v>0.05682198633954982</v>
       </c>
       <c r="F23">
-        <v>0.9833558340456818</v>
+        <v>0.6051479890270883</v>
       </c>
       <c r="G23">
-        <v>0.000766019474942694</v>
+        <v>0.4491253101220138</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01454509866519516</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2929475703526236</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2420126877179349</v>
       </c>
       <c r="L23">
-        <v>0.5167752711438993</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.570975141788054</v>
+        <v>0.5098373237735387</v>
       </c>
       <c r="O23">
-        <v>2.756498875946988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8766301426763761</v>
+      </c>
+      <c r="Q23">
+        <v>1.516923781007307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.043896635942701</v>
+        <v>3.358217488619459</v>
       </c>
       <c r="C24">
-        <v>0.4496223427119617</v>
+        <v>0.5271928779007453</v>
       </c>
       <c r="D24">
-        <v>0.04531628896409501</v>
+        <v>0.08108712844905597</v>
       </c>
       <c r="E24">
-        <v>0.04788605811149971</v>
+        <v>0.05435066601671146</v>
       </c>
       <c r="F24">
-        <v>0.8614548183648623</v>
+        <v>0.5363535151273311</v>
       </c>
       <c r="G24">
-        <v>0.0007734318172165513</v>
+        <v>0.3977259142370855</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009866508247420747</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2760644383221802</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.237374363651476</v>
       </c>
       <c r="L24">
-        <v>0.4422866491024848</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6052114430813589</v>
+        <v>0.4374816651562128</v>
       </c>
       <c r="O24">
-        <v>2.444521890363546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8580794809201677</v>
+      </c>
+      <c r="Q24">
+        <v>1.372140935138674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.305473848216138</v>
+        <v>2.758200288384216</v>
       </c>
       <c r="C25">
-        <v>0.3895937147379129</v>
+        <v>0.4636649358358511</v>
       </c>
       <c r="D25">
-        <v>0.03958020671279172</v>
+        <v>0.06779976550247824</v>
       </c>
       <c r="E25">
-        <v>0.04536539094768521</v>
+        <v>0.05200228241855953</v>
       </c>
       <c r="F25">
-        <v>0.7380038877951733</v>
+        <v>0.4653079086883523</v>
       </c>
       <c r="G25">
-        <v>0.0007817154260123027</v>
+        <v>0.3450300702849205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005841231733119123</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2595099163263512</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2342624724958533</v>
       </c>
       <c r="L25">
-        <v>0.3638768191725035</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6472819228814828</v>
+        <v>0.3608233892888109</v>
       </c>
       <c r="O25">
-        <v>2.133960011591455</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8415860429411168</v>
+      </c>
+      <c r="Q25">
+        <v>1.225229194901544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.324936815000342</v>
+        <v>2.270378098830008</v>
       </c>
       <c r="C2">
-        <v>0.4127698923517897</v>
+        <v>0.4256766148351971</v>
       </c>
       <c r="D2">
-        <v>0.05761696943432781</v>
+        <v>0.06019307121336936</v>
       </c>
       <c r="E2">
-        <v>0.05088830392543997</v>
+        <v>0.0475597026676251</v>
       </c>
       <c r="F2">
-        <v>0.4183001969259053</v>
+        <v>0.4019272419983153</v>
       </c>
       <c r="G2">
-        <v>0.3112396988384489</v>
+        <v>0.2778434822787617</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003042733414710064</v>
+        <v>0.003128939855352897</v>
       </c>
       <c r="J2">
-        <v>0.2501141221643408</v>
+        <v>0.2855951785889701</v>
       </c>
       <c r="K2">
-        <v>0.2357825276081549</v>
+        <v>0.2206626617096497</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1342899058556313</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04588229526641818</v>
       </c>
       <c r="N2">
-        <v>0.3046269638096675</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8282440373389761</v>
+        <v>0.3091296319897339</v>
       </c>
       <c r="Q2">
-        <v>1.13350053146695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8494967461189447</v>
+      </c>
+      <c r="S2">
+        <v>1.082260469700898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.024873742809859</v>
+        <v>1.983151585930386</v>
       </c>
       <c r="C3">
-        <v>0.3807899681660132</v>
+        <v>0.3870525018884621</v>
       </c>
       <c r="D3">
-        <v>0.05095916710487103</v>
+        <v>0.05290014801956744</v>
       </c>
       <c r="E3">
-        <v>0.05006201868308757</v>
+        <v>0.04702422363798142</v>
       </c>
       <c r="F3">
-        <v>0.3859575744922594</v>
+        <v>0.3726972523605454</v>
       </c>
       <c r="G3">
-        <v>0.2876634538416099</v>
+        <v>0.256989992085721</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001839534680884825</v>
+        <v>0.002032047426984818</v>
       </c>
       <c r="J3">
-        <v>0.243573049959295</v>
+        <v>0.2788519313202826</v>
       </c>
       <c r="K3">
-        <v>0.2362701491681349</v>
+        <v>0.2226569105535106</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1390886823136306</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04351907329830773</v>
       </c>
       <c r="N3">
-        <v>0.2674537614270633</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8231339547511638</v>
+        <v>0.2711737572555251</v>
       </c>
       <c r="Q3">
-        <v>1.069520158466943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8369504146303868</v>
+      </c>
+      <c r="S3">
+        <v>1.027385534369813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.83997689780773</v>
+        <v>1.805838158186901</v>
       </c>
       <c r="C4">
-        <v>0.3612284941252284</v>
+        <v>0.3635203184075806</v>
       </c>
       <c r="D4">
-        <v>0.04687643690810006</v>
+        <v>0.0484372648372613</v>
       </c>
       <c r="E4">
-        <v>0.04961399798638766</v>
+        <v>0.0467428738810387</v>
       </c>
       <c r="F4">
-        <v>0.3666034463509931</v>
+        <v>0.3551332865195036</v>
       </c>
       <c r="G4">
-        <v>0.2736091988527605</v>
+        <v>0.2445793389569815</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001282215442305112</v>
+        <v>0.001509874934890743</v>
       </c>
       <c r="J4">
-        <v>0.2398567686399886</v>
+        <v>0.2748260268143028</v>
       </c>
       <c r="K4">
-        <v>0.2369052750750527</v>
+        <v>0.224123447321972</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1421530386061924</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04263909904681462</v>
       </c>
       <c r="N4">
-        <v>0.2448541019724502</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8208086166538493</v>
+        <v>0.2481017705326138</v>
       </c>
       <c r="Q4">
-        <v>1.031749077124843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8301295908114241</v>
+      </c>
+      <c r="S4">
+        <v>0.9948109722198382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.763482729038628</v>
+        <v>1.732364358666075</v>
       </c>
       <c r="C5">
-        <v>0.3537032024740512</v>
+        <v>0.3544302697304147</v>
       </c>
       <c r="D5">
-        <v>0.04525593379648285</v>
+        <v>0.04666540335008307</v>
       </c>
       <c r="E5">
-        <v>0.04940740598300053</v>
+        <v>0.04660238302332154</v>
       </c>
       <c r="F5">
-        <v>0.3585256874522713</v>
+        <v>0.3477586828360799</v>
       </c>
       <c r="G5">
-        <v>0.2676686264967501</v>
+        <v>0.2393094139189316</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001157671713637232</v>
+        <v>0.001405354065303399</v>
       </c>
       <c r="J5">
-        <v>0.2382551361758161</v>
+        <v>0.2730485968610949</v>
       </c>
       <c r="K5">
-        <v>0.236997379898682</v>
+        <v>0.2245419231078145</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1433045757017943</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04236800739782254</v>
       </c>
       <c r="N5">
-        <v>0.2357708362276014</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8204457021449514</v>
+        <v>0.2388294499627506</v>
       </c>
       <c r="Q5">
-        <v>1.015719664836041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8279743265418844</v>
+      </c>
+      <c r="S5">
+        <v>0.9808183465855507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.749574968743786</v>
+        <v>1.71895656286685</v>
       </c>
       <c r="C6">
-        <v>0.3529824549354288</v>
+        <v>0.3534837582929242</v>
       </c>
       <c r="D6">
-        <v>0.04503881874648386</v>
+        <v>0.0464246836447586</v>
       </c>
       <c r="E6">
-        <v>0.04932694545293792</v>
+        <v>0.04653406354005263</v>
       </c>
       <c r="F6">
-        <v>0.3568121534849169</v>
+        <v>0.3461637480327155</v>
       </c>
       <c r="G6">
-        <v>0.2663057848652528</v>
+        <v>0.2380676696152193</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001219847709607258</v>
+        <v>0.00148756475113565</v>
       </c>
       <c r="J6">
-        <v>0.2377982262550589</v>
+        <v>0.2725540761901826</v>
       </c>
       <c r="K6">
-        <v>0.2367146879401822</v>
+        <v>0.2243249128206308</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1433433744599846</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04226454749353969</v>
       </c>
       <c r="N6">
-        <v>0.2343566001760848</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8208721154168472</v>
+        <v>0.2373852856613325</v>
       </c>
       <c r="Q6">
-        <v>1.011859740869681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8281307667002977</v>
+      </c>
+      <c r="S6">
+        <v>0.9773090574231276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.835668979636381</v>
+        <v>1.80041992379978</v>
       </c>
       <c r="C7">
-        <v>0.3625741889005383</v>
+        <v>0.364477741203487</v>
       </c>
       <c r="D7">
-        <v>0.04699684893295597</v>
+        <v>0.04866052497713724</v>
       </c>
       <c r="E7">
-        <v>0.0494827134839273</v>
+        <v>0.04664689070850692</v>
       </c>
       <c r="F7">
-        <v>0.3654568816528041</v>
+        <v>0.3533166895856468</v>
       </c>
       <c r="G7">
-        <v>0.2724832570973064</v>
+        <v>0.2462615563361155</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001484607193171783</v>
+        <v>0.001754298593638737</v>
       </c>
       <c r="J7">
-        <v>0.239301477325526</v>
+        <v>0.2702289458716081</v>
       </c>
       <c r="K7">
-        <v>0.2360792576592274</v>
+        <v>0.2230688076471523</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1416191434663929</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.042374707059599</v>
       </c>
       <c r="N7">
-        <v>0.2449802425765171</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8221130209899741</v>
+        <v>0.2481577428493011</v>
       </c>
       <c r="Q7">
-        <v>1.028197584413704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8319900957544064</v>
+      </c>
+      <c r="S7">
+        <v>0.9891451410445171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.217223204969002</v>
+        <v>2.163284113178122</v>
       </c>
       <c r="C8">
-        <v>0.4036679098133078</v>
+        <v>0.4128522788582529</v>
       </c>
       <c r="D8">
-        <v>0.05551032838551606</v>
+        <v>0.05821192554306265</v>
       </c>
       <c r="E8">
-        <v>0.05042084110223044</v>
+        <v>0.04730355632508854</v>
       </c>
       <c r="F8">
-        <v>0.4056611448424832</v>
+        <v>0.3881075971214756</v>
       </c>
       <c r="G8">
-        <v>0.301630117955888</v>
+        <v>0.2785140282955822</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002830177214993235</v>
+        <v>0.00300367539481261</v>
       </c>
       <c r="J8">
-        <v>0.2470886267314114</v>
+        <v>0.2693723481172228</v>
       </c>
       <c r="K8">
-        <v>0.2347870304570101</v>
+        <v>0.2193792659297564</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1350189017835639</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04438207121454951</v>
       </c>
       <c r="N8">
-        <v>0.2920904978046224</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8281012187206755</v>
+        <v>0.2960858344040105</v>
       </c>
       <c r="Q8">
-        <v>1.106690024791106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8486341112110551</v>
+      </c>
+      <c r="S8">
+        <v>1.051472044829353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.966490563848538</v>
+        <v>2.877567768732149</v>
       </c>
       <c r="C9">
-        <v>0.4823426687876236</v>
+        <v>0.5081591860846117</v>
       </c>
       <c r="D9">
-        <v>0.07200936138286096</v>
+        <v>0.0764498600199417</v>
       </c>
       <c r="E9">
-        <v>0.05298372326029188</v>
+        <v>0.0490959694631119</v>
       </c>
       <c r="F9">
-        <v>0.4907343277171634</v>
+        <v>0.4640212286793997</v>
       </c>
       <c r="G9">
-        <v>0.3643404252913882</v>
+        <v>0.336878147076348</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00673612483228414</v>
+        <v>0.006391642082658855</v>
       </c>
       <c r="J9">
-        <v>0.2658375839364027</v>
+        <v>0.2838648146619818</v>
       </c>
       <c r="K9">
-        <v>0.2365476343507495</v>
+        <v>0.2165546580109883</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1241705352064812</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05358928636515969</v>
       </c>
       <c r="N9">
-        <v>0.3860310525423927</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8441459906315458</v>
+        <v>0.3919329785079526</v>
       </c>
       <c r="Q9">
-        <v>1.279601035309668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8841190743290355</v>
+      </c>
+      <c r="S9">
+        <v>1.197197008043617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.512815794136998</v>
+        <v>3.389429362001977</v>
       </c>
       <c r="C10">
-        <v>0.541548216834002</v>
+        <v>0.5773956584047255</v>
       </c>
       <c r="D10">
-        <v>0.08427414279847767</v>
+        <v>0.09067075939788793</v>
       </c>
       <c r="E10">
-        <v>0.05513679374023184</v>
+        <v>0.05080490421096506</v>
       </c>
       <c r="F10">
-        <v>0.5559155987929145</v>
+        <v>0.5176860210826817</v>
       </c>
       <c r="G10">
-        <v>0.4126090246414265</v>
+        <v>0.3987661133378992</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01085131798722561</v>
+        <v>0.009915621489192894</v>
       </c>
       <c r="J10">
-        <v>0.2810969727659085</v>
+        <v>0.2729344414932768</v>
       </c>
       <c r="K10">
-        <v>0.239378921829644</v>
+        <v>0.2139993035589995</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1161292281271677</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.062490042864777</v>
       </c>
       <c r="N10">
-        <v>0.4567233296900213</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8612184419444446</v>
+        <v>0.4635931277566669</v>
       </c>
       <c r="Q10">
-        <v>1.414359500280142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9191947559542939</v>
+      </c>
+      <c r="S10">
+        <v>1.296854158648671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.755351623844319</v>
+        <v>3.603408398229533</v>
       </c>
       <c r="C11">
-        <v>0.5711768704670135</v>
+        <v>0.6069177109102952</v>
       </c>
       <c r="D11">
-        <v>0.09011906053920171</v>
+        <v>0.09855593188832756</v>
       </c>
       <c r="E11">
-        <v>0.05598633155484833</v>
+        <v>0.05178095262577997</v>
       </c>
       <c r="F11">
-        <v>0.5846662459268899</v>
+        <v>0.5338491650951269</v>
       </c>
       <c r="G11">
-        <v>0.4335375620811277</v>
+        <v>0.4571933353322777</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01333389846684341</v>
+        <v>0.01209535425993913</v>
       </c>
       <c r="J11">
-        <v>0.2875951959305922</v>
+        <v>0.2330860188497041</v>
       </c>
       <c r="K11">
-        <v>0.2398052004088989</v>
+        <v>0.20931549732002</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1113450261544955</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06549924109583927</v>
       </c>
       <c r="N11">
-        <v>0.4897073427305259</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8725056233527368</v>
+        <v>0.4962216553834509</v>
       </c>
       <c r="Q11">
-        <v>1.47254282105547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9450663528874514</v>
+      </c>
+      <c r="S11">
+        <v>1.316048238102894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.850103933922355</v>
+        <v>3.685600091609729</v>
       </c>
       <c r="C12">
-        <v>0.581106159315425</v>
+        <v>0.6160844750608874</v>
       </c>
       <c r="D12">
-        <v>0.09220787247330264</v>
+        <v>0.1015653285248561</v>
       </c>
       <c r="E12">
-        <v>0.05643184570842941</v>
+        <v>0.05231266831218129</v>
       </c>
       <c r="F12">
-        <v>0.5965961418069341</v>
+        <v>0.5400235429020412</v>
       </c>
       <c r="G12">
-        <v>0.4424935703701465</v>
+        <v>0.4850091419975087</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01415319626429756</v>
+        <v>0.01273737565746558</v>
       </c>
       <c r="J12">
-        <v>0.2905860409644845</v>
+        <v>0.2159730251966892</v>
       </c>
       <c r="K12">
-        <v>0.2407511119193693</v>
+        <v>0.2079038336418364</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1096949955353264</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06682950235133589</v>
       </c>
       <c r="N12">
-        <v>0.5020453548383585</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.875676686612735</v>
+        <v>0.5083146390135767</v>
       </c>
       <c r="Q12">
-        <v>1.497869796398845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.954495977817885</v>
+      </c>
+      <c r="S12">
+        <v>1.323490544858515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.830296367401672</v>
+        <v>3.668565775685977</v>
       </c>
       <c r="C13">
-        <v>0.5786986465102189</v>
+        <v>0.6138497402769474</v>
       </c>
       <c r="D13">
-        <v>0.09173188556659539</v>
+        <v>0.1008823934562031</v>
       </c>
       <c r="E13">
-        <v>0.05635779668738827</v>
+        <v>0.05221702982746379</v>
       </c>
       <c r="F13">
-        <v>0.5942049482045348</v>
+        <v>0.5389072134560493</v>
       </c>
       <c r="G13">
-        <v>0.4407448356708841</v>
+        <v>0.4789844669000871</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01393838412314619</v>
+        <v>0.01255181660875149</v>
       </c>
       <c r="J13">
-        <v>0.2900322369990818</v>
+        <v>0.2197969112186797</v>
       </c>
       <c r="K13">
-        <v>0.2406869415327968</v>
+        <v>0.2083473465719763</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1100955266593342</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0666009780259138</v>
       </c>
       <c r="N13">
-        <v>0.4993411207006773</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8747277991898983</v>
+        <v>0.50566745671874</v>
       </c>
       <c r="Q13">
-        <v>1.492986205803419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.952132898938828</v>
+      </c>
+      <c r="S13">
+        <v>1.322557994912472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.763401259242585</v>
+        <v>3.610455636866902</v>
       </c>
       <c r="C14">
-        <v>0.5718794971720627</v>
+        <v>0.6075616815537899</v>
       </c>
       <c r="D14">
-        <v>0.09027981328515722</v>
+        <v>0.09878861051928567</v>
       </c>
       <c r="E14">
-        <v>0.0560322717507713</v>
+        <v>0.05183264410393562</v>
       </c>
       <c r="F14">
-        <v>0.5857232240061592</v>
+        <v>0.534448906258902</v>
       </c>
       <c r="G14">
-        <v>0.4343507351953235</v>
+        <v>0.4594619280913292</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01338463995651118</v>
+        <v>0.01212769611121178</v>
       </c>
       <c r="J14">
-        <v>0.2878795494168713</v>
+        <v>0.2317439583277832</v>
       </c>
       <c r="K14">
-        <v>0.2399422158371962</v>
+        <v>0.2092592052118398</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.111228870762961</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06563326351921006</v>
       </c>
       <c r="N14">
-        <v>0.490702352514802</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8726535628280629</v>
+        <v>0.497198431799859</v>
       </c>
       <c r="Q14">
-        <v>1.474868582085122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9457005819589739</v>
+      </c>
+      <c r="S14">
+        <v>1.316949044174748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.721246710753576</v>
+        <v>3.573473360173125</v>
       </c>
       <c r="C15">
-        <v>0.5682332808465276</v>
+        <v>0.6041997350281463</v>
       </c>
       <c r="D15">
-        <v>0.08944193174831838</v>
+        <v>0.09758099294779043</v>
       </c>
       <c r="E15">
-        <v>0.05579030820562814</v>
+        <v>0.05156254414682948</v>
       </c>
       <c r="F15">
-        <v>0.5801830170825397</v>
+        <v>0.5312607245620882</v>
       </c>
       <c r="G15">
-        <v>0.4300846335338377</v>
+        <v>0.4477815574143591</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01312731002114464</v>
+        <v>0.01196726728272068</v>
       </c>
       <c r="J15">
-        <v>0.2863859973466418</v>
+        <v>0.238664557943757</v>
       </c>
       <c r="K15">
-        <v>0.2392145504297076</v>
+        <v>0.2095286762851032</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1118285027265422</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06492428067075195</v>
       </c>
       <c r="N15">
-        <v>0.4855062764946609</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8719120528168958</v>
+        <v>0.4920933970722672</v>
       </c>
       <c r="Q15">
-        <v>1.462663437920583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9424525443936176</v>
+      </c>
+      <c r="S15">
+        <v>1.312074300387849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.487093069506955</v>
+        <v>3.365471305213248</v>
       </c>
       <c r="C16">
-        <v>0.5440310180954668</v>
+        <v>0.5801586372122074</v>
       </c>
       <c r="D16">
-        <v>0.08432134695441107</v>
+        <v>0.09062473911706093</v>
       </c>
       <c r="E16">
-        <v>0.05471037663159883</v>
+        <v>0.05039407650837369</v>
       </c>
       <c r="F16">
-        <v>0.5510047125655007</v>
+        <v>0.5135664490530658</v>
       </c>
       <c r="G16">
-        <v>0.4081867853203391</v>
+        <v>0.392493353147529</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01128117166499898</v>
+        <v>0.01051693859546088</v>
       </c>
       <c r="J16">
-        <v>0.2791323760198594</v>
+        <v>0.2737230709079199</v>
       </c>
       <c r="K16">
-        <v>0.2369863922414375</v>
+        <v>0.2121113099598197</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.115665919809425</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06140493915782486</v>
       </c>
       <c r="N16">
-        <v>0.4553060687835853</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8647395922636747</v>
+        <v>0.4621963160544453</v>
       </c>
       <c r="Q16">
-        <v>1.400856443707823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9222480602927021</v>
+      </c>
+      <c r="S16">
+        <v>1.285926795794211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.343401064616046</v>
+        <v>3.234946357603064</v>
       </c>
       <c r="C17">
-        <v>0.5292145679521525</v>
+        <v>0.5643834988277661</v>
       </c>
       <c r="D17">
-        <v>0.08118425003287655</v>
+        <v>0.08661524368200446</v>
       </c>
       <c r="E17">
-        <v>0.05407054995786353</v>
+        <v>0.04977066860422319</v>
       </c>
       <c r="F17">
-        <v>0.533336870593665</v>
+        <v>0.5013132717243067</v>
       </c>
       <c r="G17">
-        <v>0.3949546245289213</v>
+        <v>0.366014328689559</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01023350956902025</v>
+        <v>0.009682663612648135</v>
       </c>
       <c r="J17">
-        <v>0.2748024781116527</v>
+        <v>0.2889838999589642</v>
       </c>
       <c r="K17">
-        <v>0.2357549561669714</v>
+        <v>0.2132169720192749</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1178867066844749</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05914840426171253</v>
       </c>
       <c r="N17">
-        <v>0.436886699667383</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8606028747921783</v>
+        <v>0.4437844485314599</v>
       </c>
       <c r="Q17">
-        <v>1.363615862703114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9115023339630284</v>
+      </c>
+      <c r="S17">
+        <v>1.265452474765311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.263707241565896</v>
+        <v>3.16179003343143</v>
       </c>
       <c r="C18">
-        <v>0.5193662172989946</v>
+        <v>0.5534977015221898</v>
       </c>
       <c r="D18">
-        <v>0.07925163047998041</v>
+        <v>0.08426316356496244</v>
       </c>
       <c r="E18">
-        <v>0.05382316845205004</v>
+        <v>0.04955107169087469</v>
       </c>
       <c r="F18">
-        <v>0.5241775294308155</v>
+        <v>0.494672030867136</v>
       </c>
       <c r="G18">
-        <v>0.3883413088033763</v>
+        <v>0.3541379049935358</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.009444488628610692</v>
+        <v>0.008952473872082756</v>
       </c>
       <c r="J18">
-        <v>0.2728229572840632</v>
+        <v>0.2955307385605295</v>
       </c>
       <c r="K18">
-        <v>0.2358117647839855</v>
+        <v>0.2143422396736447</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1193558680532547</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05808134187030234</v>
       </c>
       <c r="N18">
-        <v>0.4261088313166965</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8570423134255094</v>
+        <v>0.4329455250098277</v>
       </c>
       <c r="Q18">
-        <v>1.345379863811786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9045129671098806</v>
+      </c>
+      <c r="S18">
+        <v>1.254953766897671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.234425313117015</v>
+        <v>3.13457973427245</v>
       </c>
       <c r="C19">
-        <v>0.5170641310471922</v>
+        <v>0.55086814642371</v>
       </c>
       <c r="D19">
-        <v>0.0786974829053122</v>
+        <v>0.08358540247038349</v>
       </c>
       <c r="E19">
-        <v>0.05365396354816809</v>
+        <v>0.04939957932748662</v>
       </c>
       <c r="F19">
-        <v>0.5203794567739735</v>
+        <v>0.4916494708260615</v>
       </c>
       <c r="G19">
-        <v>0.3853990217208008</v>
+        <v>0.3498195468071543</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.009345769337643972</v>
+        <v>0.008912883308862085</v>
       </c>
       <c r="J19">
-        <v>0.2717986573060358</v>
+        <v>0.2969158420296765</v>
       </c>
       <c r="K19">
-        <v>0.2352859614355687</v>
+        <v>0.2141871419610624</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1196559636520362</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05751670764206551</v>
       </c>
       <c r="N19">
-        <v>0.4226363234883763</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8568366135613985</v>
+        <v>0.4294448974466434</v>
       </c>
       <c r="Q19">
-        <v>1.336973164403361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9033033114660753</v>
+      </c>
+      <c r="S19">
+        <v>1.248947998309291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.358933148511653</v>
+        <v>3.249179162294809</v>
       </c>
       <c r="C20">
-        <v>0.5306856064321721</v>
+        <v>0.5659869444826313</v>
       </c>
       <c r="D20">
-        <v>0.08150786448228331</v>
+        <v>0.08702213163674344</v>
       </c>
       <c r="E20">
-        <v>0.054146646863936</v>
+        <v>0.04984204990712016</v>
       </c>
       <c r="F20">
-        <v>0.5352814230589829</v>
+        <v>0.5027392851323285</v>
       </c>
       <c r="G20">
-        <v>0.3964285663452785</v>
+        <v>0.3686447495211667</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01032470234707539</v>
+        <v>0.009747899123451198</v>
       </c>
       <c r="J20">
-        <v>0.2752957072867162</v>
+        <v>0.2876653824385187</v>
       </c>
       <c r="K20">
-        <v>0.235937246555423</v>
+        <v>0.2131683679938732</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1176744425051091</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05941210959612064</v>
       </c>
       <c r="N20">
-        <v>0.438826201015587</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8609329281064362</v>
+        <v>0.4457293503239299</v>
       </c>
       <c r="Q20">
-        <v>1.367786481532846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9124777953124266</v>
+      </c>
+      <c r="S20">
+        <v>1.268017544959633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.779704318091262</v>
+        <v>3.619875592258666</v>
       </c>
       <c r="C21">
-        <v>0.5753834607083377</v>
+        <v>0.6092888231574136</v>
       </c>
       <c r="D21">
-        <v>0.09085174292408027</v>
+        <v>0.09995146154928847</v>
       </c>
       <c r="E21">
-        <v>0.05600170440485286</v>
+        <v>0.05194239783318189</v>
       </c>
       <c r="F21">
-        <v>0.5871791968987097</v>
+        <v>0.5322530456401395</v>
       </c>
       <c r="G21">
-        <v>0.435187648074546</v>
+        <v>0.4753269052838789</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01376177541228429</v>
+        <v>0.01250206493136297</v>
       </c>
       <c r="J21">
-        <v>0.2879867109351437</v>
+        <v>0.2169210601005815</v>
       </c>
       <c r="K21">
-        <v>0.2393584263538777</v>
+        <v>0.2073481435251132</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1103402491562893</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06521447531434532</v>
       </c>
       <c r="N21">
-        <v>0.4934846511405908</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8747073608671343</v>
+        <v>0.4996570653121211</v>
       </c>
       <c r="Q21">
-        <v>1.476883199594823</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9513065507051834</v>
+      </c>
+      <c r="S21">
+        <v>1.307590110079332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.058847166024066</v>
+        <v>3.863480714822117</v>
       </c>
       <c r="C22">
-        <v>0.6028029861655568</v>
+        <v>0.634956158821808</v>
       </c>
       <c r="D22">
-        <v>0.09678960960845728</v>
+        <v>0.1084681511852068</v>
       </c>
       <c r="E22">
-        <v>0.05745096903869218</v>
+        <v>0.05360698882523707</v>
       </c>
       <c r="F22">
-        <v>0.6232129603554313</v>
+        <v>0.5521803393722422</v>
       </c>
       <c r="G22">
-        <v>0.4625379424228271</v>
+        <v>0.5561783642591251</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0160214462546806</v>
+        <v>0.01417593725592159</v>
       </c>
       <c r="J22">
-        <v>0.2973565450177915</v>
+        <v>0.1766593940503611</v>
       </c>
       <c r="K22">
-        <v>0.2430740098305364</v>
+        <v>0.2043679982062052</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1059901484845778</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06963992880966785</v>
       </c>
       <c r="N22">
-        <v>0.5292714858469481</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8827644929857001</v>
+        <v>0.5347977154094394</v>
       </c>
       <c r="Q22">
-        <v>1.554709255320176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9769759315299353</v>
+      </c>
+      <c r="S22">
+        <v>1.335405128628452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.913908280707346</v>
+        <v>3.740754901466687</v>
       </c>
       <c r="C23">
-        <v>0.5863470138084779</v>
+        <v>0.6205775196011416</v>
       </c>
       <c r="D23">
-        <v>0.09344335942675031</v>
+        <v>0.1034329970954104</v>
       </c>
       <c r="E23">
-        <v>0.05682198633954982</v>
+        <v>0.05276732721207189</v>
       </c>
       <c r="F23">
-        <v>0.6051479890270883</v>
+        <v>0.5445452323359348</v>
       </c>
       <c r="G23">
-        <v>0.4491253101220138</v>
+        <v>0.5053092164410771</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01454509866519516</v>
+        <v>0.01296831164634238</v>
       </c>
       <c r="J23">
-        <v>0.2929475703526236</v>
+        <v>0.2048062425749748</v>
       </c>
       <c r="K23">
-        <v>0.2420126877179349</v>
+        <v>0.207466937687208</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1087955655438471</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06790625888808322</v>
       </c>
       <c r="N23">
-        <v>0.5098373237735387</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8766301426763761</v>
+        <v>0.5159147037027481</v>
       </c>
       <c r="Q23">
-        <v>1.516923781007307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9596160745725513</v>
+      </c>
+      <c r="S23">
+        <v>1.329973062034384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.358217488619459</v>
+        <v>3.248980830092478</v>
       </c>
       <c r="C24">
-        <v>0.5271928779007453</v>
+        <v>0.5622002814811253</v>
       </c>
       <c r="D24">
-        <v>0.08108712844905597</v>
+        <v>0.08655216553793821</v>
       </c>
       <c r="E24">
-        <v>0.05435066601671146</v>
+        <v>0.05003622939592312</v>
       </c>
       <c r="F24">
-        <v>0.5363535151273311</v>
+        <v>0.5039930966621995</v>
       </c>
       <c r="G24">
-        <v>0.3977259142370855</v>
+        <v>0.3693721782233013</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.009866508247420747</v>
+        <v>0.009195339236174327</v>
       </c>
       <c r="J24">
-        <v>0.2760644383221802</v>
+        <v>0.2892036445931296</v>
       </c>
       <c r="K24">
-        <v>0.237374363651476</v>
+        <v>0.2145813073500378</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1182784223189781</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05984636902327622</v>
       </c>
       <c r="N24">
-        <v>0.4374816651562128</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8580794809201677</v>
+        <v>0.4443749833870214</v>
       </c>
       <c r="Q24">
-        <v>1.372140935138674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9091082357437159</v>
+      </c>
+      <c r="S24">
+        <v>1.272862174346557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.758200288384216</v>
+        <v>2.68077573395027</v>
       </c>
       <c r="C25">
-        <v>0.4636649358358511</v>
+        <v>0.4857724800481833</v>
       </c>
       <c r="D25">
-        <v>0.06779976550247824</v>
+        <v>0.07162215269993766</v>
       </c>
       <c r="E25">
-        <v>0.05200228241855953</v>
+        <v>0.04830012745878065</v>
       </c>
       <c r="F25">
-        <v>0.4653079086883523</v>
+        <v>0.4422242859221086</v>
       </c>
       <c r="G25">
-        <v>0.3450300702849205</v>
+        <v>0.3147796378856214</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005841231733119123</v>
+        <v>0.005762680590500224</v>
       </c>
       <c r="J25">
-        <v>0.2595099163263512</v>
+        <v>0.2844575215451215</v>
       </c>
       <c r="K25">
-        <v>0.2342624724958533</v>
+        <v>0.2160834009003239</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1265936483825882</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0502409574099314</v>
       </c>
       <c r="N25">
-        <v>0.3608233892888109</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8415860429411168</v>
+        <v>0.3663189752093245</v>
       </c>
       <c r="Q25">
-        <v>1.225229194901544</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8756581848149096</v>
+      </c>
+      <c r="S25">
+        <v>1.15388924555063</v>
       </c>
     </row>
   </sheetData>
